--- a/src/by/it/telushko/structure.xlsx
+++ b/src/by/it/telushko/structure.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="41">
   <si>
     <t>id</t>
   </si>
@@ -36,15 +36,6 @@
     <t>email</t>
   </si>
   <si>
-    <t>contact</t>
-  </si>
-  <si>
-    <t>c1</t>
-  </si>
-  <si>
-    <t>c2</t>
-  </si>
-  <si>
     <t>vehicle</t>
   </si>
   <si>
@@ -60,12 +51,6 @@
     <t>year</t>
   </si>
   <si>
-    <t>car</t>
-  </si>
-  <si>
-    <t>moto</t>
-  </si>
-  <si>
     <t>pass</t>
   </si>
   <si>
@@ -75,12 +60,6 @@
     <t>sergey</t>
   </si>
   <si>
-    <t>v1</t>
-  </si>
-  <si>
-    <t>v2</t>
-  </si>
-  <si>
     <t>login1</t>
   </si>
   <si>
@@ -102,16 +81,64 @@
     <t>-</t>
   </si>
   <si>
-    <t>phone1</t>
-  </si>
-  <si>
-    <t>phone2</t>
-  </si>
-  <si>
-    <t>s1</t>
-  </si>
-  <si>
-    <t>s2</t>
+    <t>client</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>mail1</t>
+  </si>
+  <si>
+    <t>mail2</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>feedback</t>
+  </si>
+  <si>
+    <t>placed</t>
+  </si>
+  <si>
+    <t>accepted</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
+    <t>fk_status</t>
+  </si>
+  <si>
+    <t>role</t>
+  </si>
+  <si>
+    <t>fk_feedback</t>
+  </si>
+  <si>
+    <t>fk_order</t>
+  </si>
+  <si>
+    <t>fk_vehicle</t>
+  </si>
+  <si>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>CTO</t>
   </si>
 </sst>
 </file>
@@ -158,7 +185,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -266,6 +293,61 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -276,7 +358,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
@@ -287,22 +369,40 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="20% - Акцент1" xfId="1" builtinId="30"/>
@@ -605,282 +705,294 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:O24"/>
+  <dimension ref="B2:P22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="15.5703125" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C2" s="3" t="s">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="5" t="s">
+      <c r="C3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="14"/>
+      <c r="E4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="8">
+        <v>1</v>
+      </c>
+      <c r="H4" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B5" s="2">
+        <v>2</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="14"/>
+      <c r="E5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="8">
+        <v>1</v>
+      </c>
+      <c r="H5" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="25">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B6" s="28">
+        <v>3</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="30"/>
+      <c r="E6" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="19">
+        <v>2</v>
+      </c>
+      <c r="H6" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="27" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B8" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="K8" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B9" s="18">
+        <v>1</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="I9" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="L9" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="M9" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="N9" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="O9" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="P9" s="21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B10" s="19">
+        <v>2</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="22">
+        <v>1</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="32">
+        <v>1</v>
+      </c>
+      <c r="I10" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="K10" s="31">
+        <v>1</v>
+      </c>
+      <c r="L10" s="31"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="31"/>
+      <c r="O10" s="31"/>
+      <c r="P10" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B11" s="1"/>
+      <c r="E11" s="24">
+        <v>2</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" s="32">
+        <v>2</v>
+      </c>
+      <c r="I11" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="K11" s="32">
+        <v>2</v>
+      </c>
+      <c r="L11" s="32"/>
+      <c r="M11" s="32"/>
+      <c r="N11" s="32"/>
+      <c r="O11" s="32"/>
+      <c r="P11" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B12" s="1"/>
+      <c r="E12" s="26">
+        <v>3</v>
+      </c>
+      <c r="F12" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="32">
+        <v>3</v>
+      </c>
+      <c r="I12" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="K12" s="33">
+        <v>3</v>
+      </c>
+      <c r="L12" s="33"/>
+      <c r="M12" s="33"/>
+      <c r="N12" s="33"/>
+      <c r="O12" s="33"/>
+      <c r="P12" s="27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B13" s="1"/>
+      <c r="H13" s="32">
         <v>4</v>
       </c>
-      <c r="H2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B3" s="1"/>
-      <c r="C3" s="2">
-        <v>1</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="I3" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="K3" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="L3" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="M3" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="N3" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="O3" s="14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B4" s="1"/>
-      <c r="C4" s="2">
-        <v>2</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="K4" s="10">
-        <v>1</v>
-      </c>
-      <c r="L4" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="11"/>
-    </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B5" s="1"/>
-      <c r="C5" s="2">
-        <v>3</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="I5" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="K5" s="10">
-        <v>2</v>
-      </c>
-      <c r="L5" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="11"/>
-    </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B6" s="1"/>
-      <c r="K6" s="10">
-        <v>3</v>
-      </c>
-      <c r="L6" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="11"/>
-    </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B7" s="1"/>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B8" s="1"/>
-      <c r="K8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B9" s="1"/>
-      <c r="K9" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="L9" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="M9" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="N9" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="O9" s="14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B10" s="1"/>
-      <c r="K10" s="10">
-        <v>1</v>
-      </c>
-      <c r="L10" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="M10" s="15"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="11"/>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B11" s="1"/>
-      <c r="K11" s="10">
-        <v>2</v>
-      </c>
-      <c r="L11" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="M11" s="16"/>
-      <c r="N11" s="16"/>
-      <c r="O11" s="11"/>
-    </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B12" s="1"/>
-      <c r="K12" s="10">
-        <v>3</v>
-      </c>
-      <c r="L12" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="M12" s="16"/>
-      <c r="N12" s="16"/>
-      <c r="O12" s="11"/>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B13" s="1"/>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="I13" s="25" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
-      <c r="K14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
-      <c r="K15" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="L15" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="M15" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="N15" s="13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
-      <c r="K16" s="10">
-        <v>1</v>
-      </c>
-      <c r="L16" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="M16" s="15"/>
-      <c r="N16" s="15"/>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
-      <c r="K17" s="10">
-        <v>2</v>
-      </c>
-      <c r="L17" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="M17" s="16"/>
-      <c r="N17" s="16"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
-      <c r="K18" s="10">
-        <v>3</v>
-      </c>
-      <c r="L18" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="M18" s="16"/>
-      <c r="N18" s="16"/>
+      <c r="K18" s="14" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
+      <c r="K19" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="L19" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="M19" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="N19" s="21" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
@@ -891,9 +1003,18 @@
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
-      <c r="J20" s="19"/>
-      <c r="K20" t="s">
-        <v>8</v>
+      <c r="J20" s="15"/>
+      <c r="K20" s="32">
+        <v>1</v>
+      </c>
+      <c r="L20" s="32">
+        <v>1</v>
+      </c>
+      <c r="M20" s="32">
+        <v>1</v>
+      </c>
+      <c r="N20" s="25">
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
@@ -906,48 +1027,32 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
-      <c r="K21" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="L21" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="M21" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="N21" s="13" t="s">
-        <v>12</v>
+      <c r="K21" s="32">
+        <v>2</v>
+      </c>
+      <c r="L21" s="32">
+        <v>1</v>
+      </c>
+      <c r="M21" s="32">
+        <v>2</v>
+      </c>
+      <c r="N21" s="25">
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="K22" s="10">
-        <v>1</v>
-      </c>
-      <c r="L22" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="M22" s="15"/>
-      <c r="N22" s="15"/>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="K23" s="10">
+      <c r="K22" s="33">
+        <v>3</v>
+      </c>
+      <c r="L22" s="33">
         <v>2</v>
       </c>
-      <c r="L23" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="M23" s="16"/>
-      <c r="N23" s="16"/>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="K24" s="10">
+      <c r="M22" s="33">
         <v>3</v>
       </c>
-      <c r="L24" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="M24" s="16"/>
-      <c r="N24" s="16"/>
+      <c r="N22" s="27">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
